--- a/biology/Zoologie/Hyène_brune/Hyène_brune.xlsx
+++ b/biology/Zoologie/Hyène_brune/Hyène_brune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_brune</t>
+          <t>Hyène_brune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parahyaena brunnea
 La hyène brune (Parahyaena brunnea, précédemment Hyaena brunnea) est une espèce de hyène qui vit dans le sud de l'Afrique. Contrairement à la hyène tachetée, elle est une médiocre chasseuse et se nourrit surtout de charognes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_brune</t>
+          <t>Hyène_brune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A. Smith l'a décrite sous le nom Hyæna villosa (1827) ; G. Cuvier sous le nom Hyæna ruffa ; et Isidore Geoffroy Saint-Hilaire sous le nom Hyæna fusca[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. Smith l'a décrite sous le nom Hyæna villosa (1827) ; G. Cuvier sous le nom Hyæna ruffa ; et Isidore Geoffroy Saint-Hilaire sous le nom Hyæna fusca.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_brune</t>
+          <t>Hyène_brune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Botswana, Namibie, Afrique du Sud (désert du Kalahari, désert de Namibie), Mozambique, Zimbabwe ouest et sud[2],[3] Mozambique sud[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botswana, Namibie, Afrique du Sud (désert du Kalahari, désert de Namibie), Mozambique, Zimbabwe ouest et sud, Mozambique sud.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_brune</t>
+          <t>Hyène_brune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est plus petite que la hyène tachetée. La longueur du corps varie entre 1,10 m et 1,35 m[4].
-Elle a de longs poils gris-brun foncé, longs et touffus, qui lui recouvrent le corps, sauf sur les pattes qui portent des rayures rapprochées brun foncé sur fond gris. La tête est grise[1],[4].
-Les mâles sont un peu plus grands que les femelles[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est plus petite que la hyène tachetée. La longueur du corps varie entre 1,10 m et 1,35 m.
+Elle a de longs poils gris-brun foncé, longs et touffus, qui lui recouvrent le corps, sauf sur les pattes qui portent des rayures rapprochées brun foncé sur fond gris. La tête est grise,.
+Les mâles sont un peu plus grands que les femelles.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_brune</t>
+          <t>Hyène_brune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les clans, variant de 4 à 15 individus, sont plus petits que ceux des hyènes tachetées. Ils sont actifs la nuit et se déplacent alors à la recherche de charognes. Les hyènes brunes complètent leur régime avec des fruits riches en eau et occasionnellement des petits oiseaux, mammifères ou reptiles[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les clans, variant de 4 à 15 individus, sont plus petits que ceux des hyènes tachetées. Ils sont actifs la nuit et se déplacent alors à la recherche de charognes. Les hyènes brunes complètent leur régime avec des fruits riches en eau et occasionnellement des petits oiseaux, mammifères ou reptiles.
 Sur la côte des squelettes, les jeunes otaries à fourrure d'Afrique du Sud et chacals à chabraque qui s'éloignent des adultes sont la principale ressource alimentaire de l'espèce. 
 </t>
         </is>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_brune</t>
+          <t>Hyène_brune</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Menaces sur l'espèce</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après l'Union internationale pour la conservation de la nature, le nombre d'individus serait compris entre 4 365 et 10 111[6].
-Les principaux prédateurs des hyènes brunes sont les lions, les hyènes tachetées et, pour les jeunes, les chacals et les lycaons. L'Homme, qui les accuse de dégâts sur les productions agricoles, peut également les tuer, par tir ou piégeage[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après l'Union internationale pour la conservation de la nature, le nombre d'individus serait compris entre 4 365 et 10 111.
+Les principaux prédateurs des hyènes brunes sont les lions, les hyènes tachetées et, pour les jeunes, les chacals et les lycaons. L'Homme, qui les accuse de dégâts sur les productions agricoles, peut également les tuer, par tir ou piégeage.
 </t>
         </is>
       </c>
